--- a/12.- VaR ApL I.xlsx
+++ b/12.- VaR ApL I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4CC321-0065-B14D-B23B-AFF19622B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABAB6AB-B2A0-0D4C-84D7-4977E6463F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{AAAA40BB-0105-C94C-9E93-71014CF61909}"/>
   </bookViews>
@@ -22160,8 +22160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30156819-4D43-B64F-8654-87B4BF10E538}">
   <dimension ref="A2:Q763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22439,11 +22439,11 @@
         <v>4.9078127072557098E-3</v>
       </c>
       <c r="L14" s="25">
-        <f t="shared" ref="L14:L77" si="6">F14*$N$5+K14*$O$5</f>
+        <f>F14*$N$5+K14*$O$5</f>
         <v>4.0587373693754328E-3</v>
       </c>
       <c r="M14" s="25">
-        <f t="shared" ref="M14:M77" si="7">E14*$N$5+J14*$O$5</f>
+        <f t="shared" ref="M14:M77" si="6">E14*$N$5+J14*$O$5</f>
         <v>2.0190134912883439E-4</v>
       </c>
       <c r="O14" s="12"/>
@@ -22495,11 +22495,11 @@
         <v>-3.4368803701255723E-3</v>
       </c>
       <c r="L15" s="25">
+        <f t="shared" ref="L14:L77" si="7">F15*$N$5+K15*$O$5</f>
+        <v>-1.5043531425873158E-3</v>
+      </c>
+      <c r="M15" s="25">
         <f t="shared" si="6"/>
-        <v>-1.5043531425873158E-3</v>
-      </c>
-      <c r="M15" s="25">
-        <f t="shared" si="7"/>
         <v>2.7340802457309047E-4</v>
       </c>
       <c r="O15" s="12" t="s">
@@ -22555,11 +22555,11 @@
         <v>4.7815114889095955E-3</v>
       </c>
       <c r="L16" s="25">
+        <f t="shared" si="7"/>
+        <v>3.5326648517151598E-3</v>
+      </c>
+      <c r="M16" s="25">
         <f t="shared" si="6"/>
-        <v>3.5326648517151598E-3</v>
-      </c>
-      <c r="M16" s="25">
-        <f t="shared" si="7"/>
         <v>2.0226714964365143E-4</v>
       </c>
       <c r="O16" s="12" t="s">
@@ -22615,11 +22615,11 @@
         <v>1.2098400322624103E-2</v>
       </c>
       <c r="L17" s="25">
+        <f t="shared" si="7"/>
+        <v>9.1936623536038979E-3</v>
+      </c>
+      <c r="M17" s="25">
         <f t="shared" si="6"/>
-        <v>9.1936623536038979E-3</v>
-      </c>
-      <c r="M17" s="25">
-        <f t="shared" si="7"/>
         <v>2.0430360785786362E-4</v>
       </c>
       <c r="P17" t="s">
@@ -22667,11 +22667,11 @@
         <v>2.4255491173696964E-3</v>
       </c>
       <c r="L18" s="25">
+        <f t="shared" si="7"/>
+        <v>2.2792811297393236E-3</v>
+      </c>
+      <c r="M18" s="25">
         <f t="shared" si="6"/>
-        <v>2.2792811297393236E-3</v>
-      </c>
-      <c r="M18" s="25">
-        <f t="shared" si="7"/>
         <v>2.0477834559604288E-4</v>
       </c>
     </row>
@@ -22716,11 +22716,11 @@
         <v>8.9734874235214424E-3</v>
       </c>
       <c r="L19" s="25">
+        <f t="shared" si="7"/>
+        <v>6.514697979160951E-3</v>
+      </c>
+      <c r="M19" s="25">
         <f t="shared" si="6"/>
-        <v>6.514697979160951E-3</v>
-      </c>
-      <c r="M19" s="25">
-        <f t="shared" si="7"/>
         <v>2.0626534198759034E-4</v>
       </c>
       <c r="O19" s="12"/>
@@ -22772,11 +22772,11 @@
         <v>2.7266530334015826E-3</v>
       </c>
       <c r="L20" s="25">
+        <f t="shared" si="7"/>
+        <v>2.1405681877708282E-3</v>
+      </c>
+      <c r="M20" s="25">
         <f t="shared" si="6"/>
-        <v>2.1405681877708282E-3</v>
-      </c>
-      <c r="M20" s="25">
-        <f t="shared" si="7"/>
         <v>2.0674384379587514E-4</v>
       </c>
       <c r="O20" s="12" t="s">
@@ -22832,11 +22832,11 @@
         <v>8.1866557511256488E-4</v>
       </c>
       <c r="L21" s="25">
+        <f t="shared" si="7"/>
+        <v>1.2068685940601798E-3</v>
+      </c>
+      <c r="M21" s="25">
         <f t="shared" si="6"/>
-        <v>1.2068685940601798E-3</v>
-      </c>
-      <c r="M21" s="25">
-        <f t="shared" si="7"/>
         <v>2.0696876618214117E-4</v>
       </c>
       <c r="O21" s="12"/>
@@ -22887,11 +22887,11 @@
         <v>-8.3885807062643591E-3</v>
       </c>
       <c r="L22" s="25">
+        <f t="shared" si="7"/>
+        <v>-6.44377961798763E-3</v>
+      </c>
+      <c r="M22" s="25">
         <f t="shared" si="6"/>
-        <v>-6.44377961798763E-3</v>
-      </c>
-      <c r="M22" s="25">
-        <f t="shared" si="7"/>
         <v>2.0551191709476847E-4</v>
       </c>
     </row>
@@ -22936,11 +22936,11 @@
         <v>5.441436539246336E-3</v>
       </c>
       <c r="L23" s="25">
+        <f t="shared" si="7"/>
+        <v>4.4223348293391581E-3</v>
+      </c>
+      <c r="M23" s="25">
         <f t="shared" si="6"/>
-        <v>4.4223348293391581E-3</v>
-      </c>
-      <c r="M23" s="25">
-        <f t="shared" si="7"/>
         <v>2.0648449671222517E-4</v>
       </c>
     </row>
@@ -22985,11 +22985,11 @@
         <v>1.18375774260151E-2</v>
       </c>
       <c r="L24" s="25">
+        <f t="shared" si="7"/>
+        <v>8.5221751494077326E-3</v>
+      </c>
+      <c r="M24" s="25">
         <f t="shared" si="6"/>
-        <v>8.5221751494077326E-3</v>
-      </c>
-      <c r="M24" s="25">
-        <f t="shared" si="7"/>
         <v>2.0845313957783127E-4</v>
       </c>
     </row>
@@ -23034,11 +23034,11 @@
         <v>-1.116101810262693E-2</v>
       </c>
       <c r="L25" s="25">
+        <f t="shared" si="7"/>
+        <v>-8.3944202298885003E-3</v>
+      </c>
+      <c r="M25" s="25">
         <f t="shared" si="6"/>
-        <v>-8.3944202298885003E-3</v>
-      </c>
-      <c r="M25" s="25">
-        <f t="shared" si="7"/>
         <v>2.0652560926098931E-4</v>
       </c>
     </row>
@@ -23083,11 +23083,11 @@
         <v>-4.8760666395774033E-3</v>
       </c>
       <c r="L26" s="25">
+        <f t="shared" si="7"/>
+        <v>-3.4475985183803747E-3</v>
+      </c>
+      <c r="M26" s="25">
         <f t="shared" si="6"/>
-        <v>-3.4475985183803747E-3</v>
-      </c>
-      <c r="M26" s="25">
-        <f t="shared" si="7"/>
         <v>2.7870142560420922E-4</v>
       </c>
     </row>
@@ -23132,11 +23132,11 @@
         <v>-1.0823975104857775E-3</v>
       </c>
       <c r="L27" s="25">
+        <f t="shared" si="7"/>
+        <v>-3.4789660542399917E-4</v>
+      </c>
+      <c r="M27" s="25">
         <f t="shared" si="6"/>
-        <v>-3.4789660542399917E-4</v>
-      </c>
-      <c r="M27" s="25">
-        <f t="shared" si="7"/>
         <v>2.056058533473557E-4</v>
       </c>
     </row>
@@ -23181,11 +23181,11 @@
         <v>-6.0516406670252376E-3</v>
       </c>
       <c r="L28" s="25">
+        <f t="shared" si="7"/>
+        <v>-5.0014383552345444E-3</v>
+      </c>
+      <c r="M28" s="25">
         <f t="shared" si="6"/>
-        <v>-5.0014383552345444E-3</v>
-      </c>
-      <c r="M28" s="25">
-        <f t="shared" si="7"/>
         <v>3.3631121195374519E-4</v>
       </c>
     </row>
@@ -23230,11 +23230,11 @@
         <v>-1.344628210300236E-4</v>
       </c>
       <c r="L29" s="25">
+        <f t="shared" si="7"/>
+        <v>-7.9198219656699217E-4</v>
+      </c>
+      <c r="M29" s="25">
         <f t="shared" si="6"/>
-        <v>-7.9198219656699217E-4</v>
-      </c>
-      <c r="M29" s="25">
-        <f t="shared" si="7"/>
         <v>2.0439069113751027E-4</v>
       </c>
     </row>
@@ -23279,11 +23279,11 @@
         <v>1.3077237433592126E-2</v>
       </c>
       <c r="L30" s="25">
+        <f t="shared" si="7"/>
+        <v>9.0356308335600224E-3</v>
+      </c>
+      <c r="M30" s="25">
         <f t="shared" si="6"/>
-        <v>9.0356308335600224E-3</v>
-      </c>
-      <c r="M30" s="25">
-        <f t="shared" si="7"/>
         <v>2.0648811619938129E-4</v>
       </c>
     </row>
@@ -23328,11 +23328,11 @@
         <v>5.3410024650779597E-3</v>
       </c>
       <c r="L31" s="25">
+        <f t="shared" si="7"/>
+        <v>4.0444054997358612E-3</v>
+      </c>
+      <c r="M31" s="25">
         <f t="shared" si="6"/>
-        <v>4.0444054997358612E-3</v>
-      </c>
-      <c r="M31" s="25">
-        <f t="shared" si="7"/>
         <v>4.1481082048573187E-4</v>
       </c>
     </row>
@@ -23377,11 +23377,11 @@
         <v>-1.0943912448700965E-3</v>
       </c>
       <c r="L32" s="25">
+        <f t="shared" si="7"/>
+        <v>-1.2306185551081697E-3</v>
+      </c>
+      <c r="M32" s="25">
         <f t="shared" si="6"/>
-        <v>-1.2306185551081697E-3</v>
-      </c>
-      <c r="M32" s="25">
-        <f t="shared" si="7"/>
         <v>3.4122992768970015E-4</v>
       </c>
     </row>
@@ -23426,11 +23426,11 @@
         <v>-3.6799781927218111E-3</v>
       </c>
       <c r="L33" s="25">
+        <f t="shared" si="7"/>
+        <v>-2.5331308585047865E-3</v>
+      </c>
+      <c r="M33" s="25">
         <f t="shared" si="6"/>
-        <v>-2.5331308585047865E-3</v>
-      </c>
-      <c r="M33" s="25">
-        <f t="shared" si="7"/>
         <v>2.0656090065489818E-4</v>
       </c>
     </row>
@@ -23475,11 +23475,11 @@
         <v>2.4593523705425113E-3</v>
       </c>
       <c r="L34" s="25">
+        <f t="shared" si="7"/>
+        <v>1.5703331299595869E-3</v>
+      </c>
+      <c r="M34" s="25">
         <f t="shared" si="6"/>
-        <v>1.5703331299595869E-3</v>
-      </c>
-      <c r="M34" s="25">
-        <f t="shared" si="7"/>
         <v>2.0694167675060015E-4</v>
       </c>
     </row>
@@ -23524,11 +23524,11 @@
         <v>1.0942415538230943E-3</v>
       </c>
       <c r="L35" s="25">
+        <f t="shared" si="7"/>
+        <v>3.9018169584633148E-4</v>
+      </c>
+      <c r="M35" s="25">
         <f t="shared" si="6"/>
-        <v>3.9018169584633148E-4</v>
-      </c>
-      <c r="M35" s="25">
-        <f t="shared" si="7"/>
         <v>2.0706728887265785E-4</v>
       </c>
     </row>
@@ -23573,11 +23573,11 @@
         <v>-8.2000820008198971E-4</v>
       </c>
       <c r="L36" s="25">
+        <f t="shared" si="7"/>
+        <v>-1.8269050936155576E-4</v>
+      </c>
+      <c r="M36" s="25">
         <f t="shared" si="6"/>
-        <v>-1.8269050936155576E-4</v>
-      </c>
-      <c r="M36" s="25">
-        <f t="shared" si="7"/>
         <v>2.0698873943008792E-4</v>
       </c>
     </row>
@@ -23622,11 +23622,11 @@
         <v>1.0216761010630959E-2</v>
       </c>
       <c r="L37" s="25">
+        <f t="shared" si="7"/>
+        <v>7.9082487625524028E-3</v>
+      </c>
+      <c r="M37" s="25">
         <f t="shared" si="6"/>
-        <v>7.9082487625524028E-3</v>
-      </c>
-      <c r="M37" s="25">
-        <f t="shared" si="7"/>
         <v>2.8223441572053641E-4</v>
       </c>
     </row>
@@ -23671,11 +23671,11 @@
         <v>2.7689325764916894E-3</v>
       </c>
       <c r="L38" s="25">
+        <f t="shared" si="7"/>
+        <v>2.0557005629225217E-3</v>
+      </c>
+      <c r="M38" s="25">
         <f t="shared" si="6"/>
-        <v>2.0557005629225217E-3</v>
-      </c>
-      <c r="M38" s="25">
-        <f t="shared" si="7"/>
         <v>2.0924816888017041E-4</v>
       </c>
     </row>
@@ -23720,11 +23720,11 @@
         <v>-3.5867016140157526E-3</v>
       </c>
       <c r="L39" s="25">
+        <f t="shared" si="7"/>
+        <v>-2.5654931252362804E-3</v>
+      </c>
+      <c r="M39" s="25">
         <f t="shared" si="6"/>
-        <v>-2.5654931252362804E-3</v>
-      </c>
-      <c r="M39" s="25">
-        <f t="shared" si="7"/>
         <v>2.0864496552621499E-4</v>
       </c>
     </row>
@@ -23769,11 +23769,11 @@
         <v>-2.2023399862354243E-3</v>
       </c>
       <c r="L40" s="25">
+        <f t="shared" si="7"/>
+        <v>-2.1053829242558336E-3</v>
+      </c>
+      <c r="M40" s="25">
         <f t="shared" si="6"/>
-        <v>-2.1053829242558336E-3</v>
-      </c>
-      <c r="M40" s="25">
-        <f t="shared" si="7"/>
         <v>2.0819942209170035E-4</v>
       </c>
     </row>
@@ -23818,11 +23818,11 @@
         <v>5.5363321799308807E-3</v>
       </c>
       <c r="L41" s="25">
+        <f t="shared" si="7"/>
+        <v>4.1094412910215681E-3</v>
+      </c>
+      <c r="M41" s="25">
         <f t="shared" si="6"/>
-        <v>4.1094412910215681E-3</v>
-      </c>
-      <c r="M41" s="25">
-        <f t="shared" si="7"/>
         <v>2.0914699652710962E-4</v>
       </c>
     </row>
@@ -23867,11 +23867,11 @@
         <v>0</v>
       </c>
       <c r="L42" s="25">
+        <f t="shared" si="7"/>
+        <v>-8.0720532606051894E-4</v>
+      </c>
+      <c r="M42" s="25">
         <f t="shared" si="6"/>
-        <v>-8.0720532606051894E-4</v>
-      </c>
-      <c r="M42" s="25">
-        <f t="shared" si="7"/>
         <v>2.0903065937555516E-4</v>
       </c>
     </row>
@@ -23916,11 +23916,11 @@
         <v>4.0300166759310585E-3</v>
       </c>
       <c r="L43" s="25">
+        <f t="shared" si="7"/>
+        <v>3.3729139470955872E-3</v>
+      </c>
+      <c r="M43" s="25">
         <f t="shared" si="6"/>
-        <v>3.3729139470955872E-3</v>
-      </c>
-      <c r="M43" s="25">
-        <f t="shared" si="7"/>
         <v>3.4597352460816595E-4</v>
       </c>
     </row>
@@ -23965,11 +23965,11 @@
         <v>1.3378397408815745E-2</v>
       </c>
       <c r="L44" s="25">
+        <f t="shared" si="7"/>
+        <v>1.1159169176054765E-2</v>
+      </c>
+      <c r="M44" s="25">
         <f t="shared" si="6"/>
-        <v>1.1159169176054765E-2</v>
-      </c>
-      <c r="M44" s="25">
-        <f t="shared" si="7"/>
         <v>2.1226479078378295E-4</v>
       </c>
     </row>
@@ -24014,11 +24014,11 @@
         <v>-1.8273826258082826E-3</v>
       </c>
       <c r="L45" s="25">
+        <f t="shared" si="7"/>
+        <v>-1.0439239091178428E-3</v>
+      </c>
+      <c r="M45" s="25">
         <f t="shared" si="6"/>
-        <v>-1.0439239091178428E-3</v>
-      </c>
-      <c r="M45" s="25">
-        <f t="shared" si="7"/>
         <v>3.4975585050855815E-4</v>
       </c>
     </row>
@@ -24063,11 +24063,11 @@
         <v>-1.8240493896449772E-3</v>
       </c>
       <c r="L46" s="25">
+        <f t="shared" si="7"/>
+        <v>-1.5609991664421803E-3</v>
+      </c>
+      <c r="M46" s="25">
         <f t="shared" si="6"/>
-        <v>-1.5609991664421803E-3</v>
-      </c>
-      <c r="M46" s="25">
-        <f t="shared" si="7"/>
         <v>2.1164257218498988E-4</v>
       </c>
     </row>
@@ -24112,11 +24112,11 @@
         <v>-5.3035589672016936E-3</v>
       </c>
       <c r="L47" s="25">
+        <f t="shared" si="7"/>
+        <v>-5.7666475945108899E-3</v>
+      </c>
+      <c r="M47" s="25">
         <f t="shared" si="6"/>
-        <v>-5.7666475945108899E-3</v>
-      </c>
-      <c r="M47" s="25">
-        <f t="shared" si="7"/>
         <v>2.1045279903790574E-4</v>
       </c>
     </row>
@@ -24161,11 +24161,11 @@
         <v>-1.6720078027030461E-3</v>
       </c>
       <c r="L48" s="25">
+        <f t="shared" si="7"/>
+        <v>-8.1933346471062436E-4</v>
+      </c>
+      <c r="M48" s="25">
         <f t="shared" si="6"/>
-        <v>-8.1933346471062436E-4</v>
-      </c>
-      <c r="M48" s="25">
-        <f t="shared" si="7"/>
         <v>2.1022409465138499E-4</v>
       </c>
     </row>
@@ -24210,11 +24210,11 @@
         <v>-7.193249412090208E-3</v>
       </c>
       <c r="L49" s="25">
+        <f t="shared" si="7"/>
+        <v>-4.9207763954003756E-3</v>
+      </c>
+      <c r="M49" s="25">
         <f t="shared" si="6"/>
-        <v>-4.9207763954003756E-3</v>
-      </c>
-      <c r="M49" s="25">
-        <f t="shared" si="7"/>
         <v>2.0904017376465904E-4</v>
       </c>
     </row>
@@ -24259,11 +24259,11 @@
         <v>-4.8182819383260078E-3</v>
       </c>
       <c r="L50" s="25">
+        <f t="shared" si="7"/>
+        <v>-3.0947131002211246E-3</v>
+      </c>
+      <c r="M50" s="25">
         <f t="shared" si="6"/>
-        <v>-3.0947131002211246E-3</v>
-      </c>
-      <c r="M50" s="25">
-        <f t="shared" si="7"/>
         <v>3.4320132720862831E-4</v>
       </c>
     </row>
@@ -24308,11 +24308,11 @@
         <v>-3.9764157411216194E-3</v>
       </c>
       <c r="L51" s="25">
+        <f t="shared" si="7"/>
+        <v>-3.1196453691038546E-3</v>
+      </c>
+      <c r="M51" s="25">
         <f t="shared" si="6"/>
-        <v>-3.1196453691038546E-3</v>
-      </c>
-      <c r="M51" s="25">
-        <f t="shared" si="7"/>
         <v>2.0757629529970066E-4</v>
       </c>
     </row>
@@ -24357,11 +24357,11 @@
         <v>1.6481252575195615E-3</v>
       </c>
       <c r="L52" s="25">
+        <f t="shared" si="7"/>
+        <v>1.3204946389703E-3</v>
+      </c>
+      <c r="M52" s="25">
         <f t="shared" si="6"/>
-        <v>1.3204946389703E-3</v>
-      </c>
-      <c r="M52" s="25">
-        <f t="shared" si="7"/>
         <v>2.0787138434111854E-4</v>
       </c>
     </row>
@@ -24406,11 +24406,11 @@
         <v>-4.103405826836326E-3</v>
       </c>
       <c r="L53" s="25">
+        <f t="shared" si="7"/>
+        <v>-3.2532837366975554E-3</v>
+      </c>
+      <c r="M53" s="25">
         <f t="shared" si="6"/>
-        <v>-3.2532837366975554E-3</v>
-      </c>
-      <c r="M53" s="25">
-        <f t="shared" si="7"/>
         <v>2.071405388957681E-4</v>
       </c>
     </row>
@@ -24455,11 +24455,11 @@
         <v>9.6671730423973923E-3</v>
       </c>
       <c r="L54" s="25">
+        <f t="shared" si="7"/>
+        <v>7.7515148923702742E-3</v>
+      </c>
+      <c r="M54" s="25">
         <f t="shared" si="6"/>
-        <v>7.7515148923702742E-3</v>
-      </c>
-      <c r="M54" s="25">
-        <f t="shared" si="7"/>
         <v>2.088684544038903E-4</v>
       </c>
     </row>
@@ -24504,11 +24504,11 @@
         <v>-6.0398078242964726E-3</v>
       </c>
       <c r="L55" s="25">
+        <f t="shared" si="7"/>
+        <v>-4.0601029996488319E-3</v>
+      </c>
+      <c r="M55" s="25">
         <f t="shared" si="6"/>
-        <v>-4.0601029996488319E-3</v>
-      </c>
-      <c r="M55" s="25">
-        <f t="shared" si="7"/>
         <v>2.0789233307565473E-4</v>
       </c>
     </row>
@@ -24553,11 +24553,11 @@
         <v>6.8681318681318437E-4</v>
       </c>
       <c r="L56" s="25">
+        <f t="shared" si="7"/>
+        <v>7.7710623771518614E-4</v>
+      </c>
+      <c r="M56" s="25">
         <f t="shared" si="6"/>
-        <v>7.7710623771518614E-4</v>
-      </c>
-      <c r="M56" s="25">
-        <f t="shared" si="7"/>
         <v>3.4267164639639378E-4</v>
       </c>
     </row>
@@ -24602,11 +24602,11 @@
         <v>-1.3734377146001897E-4</v>
       </c>
       <c r="L57" s="25">
+        <f t="shared" si="7"/>
+        <v>-2.1410938006344481E-4</v>
+      </c>
+      <c r="M57" s="25">
         <f t="shared" si="6"/>
-        <v>-2.1410938006344481E-4</v>
-      </c>
-      <c r="M57" s="25">
-        <f t="shared" si="7"/>
         <v>2.0800847859487977E-4</v>
       </c>
     </row>
@@ -24651,11 +24651,11 @@
         <v>-6.549324600900519E-3</v>
       </c>
       <c r="L58" s="25">
+        <f t="shared" si="7"/>
+        <v>-5.1835836435587717E-3</v>
+      </c>
+      <c r="M58" s="25">
         <f t="shared" si="6"/>
-        <v>-5.1835836435587717E-3</v>
-      </c>
-      <c r="M58" s="25">
-        <f t="shared" si="7"/>
         <v>2.0684274375139049E-4</v>
       </c>
     </row>
@@ -24700,11 +24700,11 @@
         <v>3.835091083413289E-3</v>
       </c>
       <c r="L59" s="25">
+        <f t="shared" si="7"/>
+        <v>3.4930225283167095E-3</v>
+      </c>
+      <c r="M59" s="25">
         <f t="shared" si="6"/>
-        <v>3.4930225283167095E-3</v>
-      </c>
-      <c r="M59" s="25">
-        <f t="shared" si="7"/>
         <v>2.0758695891105419E-4</v>
       </c>
     </row>
@@ -24749,11 +24749,11 @@
         <v>-6.39629831246602E-3</v>
       </c>
       <c r="L60" s="25">
+        <f t="shared" si="7"/>
+        <v>-4.378295336157887E-3</v>
+      </c>
+      <c r="M60" s="25">
         <f t="shared" si="6"/>
-        <v>-4.378295336157887E-3</v>
-      </c>
-      <c r="M60" s="25">
-        <f t="shared" si="7"/>
         <v>3.3992713194056542E-4</v>
       </c>
     </row>
@@ -24798,11 +24798,11 @@
         <v>-1.2232826992875423E-2</v>
       </c>
       <c r="L61" s="25">
+        <f t="shared" si="7"/>
+        <v>-1.0203381606080843E-2</v>
+      </c>
+      <c r="M61" s="25">
         <f t="shared" si="6"/>
-        <v>-1.0203381606080843E-2</v>
-      </c>
-      <c r="M61" s="25">
-        <f t="shared" si="7"/>
         <v>2.0431393265172209E-4</v>
       </c>
     </row>
@@ -24847,11 +24847,11 @@
         <v>-2.6878107781214133E-4</v>
       </c>
       <c r="L62" s="25">
+        <f t="shared" si="7"/>
+        <v>-2.7680504212176298E-4</v>
+      </c>
+      <c r="M62" s="25">
         <f t="shared" si="6"/>
-        <v>-2.7680504212176298E-4</v>
-      </c>
-      <c r="M62" s="25">
-        <f t="shared" si="7"/>
         <v>2.0425787513769946E-4</v>
       </c>
     </row>
@@ -24896,11 +24896,11 @@
         <v>0</v>
       </c>
       <c r="L63" s="25">
+        <f t="shared" si="7"/>
+        <v>-7.2536848064047547E-5</v>
+      </c>
+      <c r="M63" s="25">
         <f t="shared" si="6"/>
-        <v>-7.2536848064047547E-5</v>
-      </c>
-      <c r="M63" s="25">
-        <f t="shared" si="7"/>
         <v>2.0424755621771025E-4</v>
       </c>
     </row>
@@ -24945,11 +24945,11 @@
         <v>-8.5276482345103544E-3</v>
       </c>
       <c r="L64" s="25">
+        <f t="shared" si="7"/>
+        <v>-6.4535197043846058E-3</v>
+      </c>
+      <c r="M64" s="25">
         <f t="shared" si="6"/>
-        <v>-6.4535197043846058E-3</v>
-      </c>
-      <c r="M64" s="25">
-        <f t="shared" si="7"/>
         <v>2.7501412152001526E-4</v>
       </c>
     </row>
@@ -24994,11 +24994,11 @@
         <v>-7.0124371526858464E-3</v>
       </c>
       <c r="L65" s="25">
+        <f t="shared" si="7"/>
+        <v>-4.9841758643906775E-3</v>
+      </c>
+      <c r="M65" s="25">
         <f t="shared" si="6"/>
-        <v>-4.9841758643906775E-3</v>
-      </c>
-      <c r="M65" s="25">
-        <f t="shared" si="7"/>
         <v>3.3133769203549913E-4</v>
       </c>
     </row>
@@ -25043,11 +25043,11 @@
         <v>-6.9636053081066907E-3</v>
       </c>
       <c r="L66" s="25">
+        <f t="shared" si="7"/>
+        <v>-4.7049827385873813E-3</v>
+      </c>
+      <c r="M66" s="25">
         <f t="shared" si="6"/>
-        <v>-4.7049827385873813E-3</v>
-      </c>
-      <c r="M66" s="25">
-        <f t="shared" si="7"/>
         <v>2.0058043839130476E-4</v>
       </c>
     </row>
@@ -25092,11 +25092,11 @@
         <v>-3.4044781982454086E-3</v>
       </c>
       <c r="L67" s="25">
+        <f t="shared" si="7"/>
+        <v>-2.457001674600104E-3</v>
+      </c>
+      <c r="M67" s="25">
         <f t="shared" si="6"/>
-        <v>-2.457001674600104E-3</v>
-      </c>
-      <c r="M67" s="25">
-        <f t="shared" si="7"/>
         <v>2.0003098587234645E-4</v>
       </c>
     </row>
@@ -25141,11 +25141,11 @@
         <v>-5.9872445659248097E-3</v>
       </c>
       <c r="L68" s="25">
+        <f t="shared" si="7"/>
+        <v>-4.435206985035238E-3</v>
+      </c>
+      <c r="M68" s="25">
         <f t="shared" si="6"/>
-        <v>-4.435206985035238E-3</v>
-      </c>
-      <c r="M68" s="25">
-        <f t="shared" si="7"/>
         <v>1.9905156410431711E-4</v>
       </c>
     </row>
@@ -25190,11 +25190,11 @@
         <v>1.0423452768728581E-3</v>
       </c>
       <c r="L69" s="25">
+        <f t="shared" si="7"/>
+        <v>1.6571833591296522E-3</v>
+      </c>
+      <c r="M69" s="25">
         <f t="shared" si="6"/>
-        <v>1.6571833591296522E-3</v>
-      </c>
-      <c r="M69" s="25">
-        <f t="shared" si="7"/>
         <v>1.9934523480274671E-4</v>
       </c>
     </row>
@@ -25239,11 +25239,11 @@
         <v>1.3046314416178539E-3</v>
       </c>
       <c r="L70" s="25">
+        <f t="shared" si="7"/>
+        <v>5.6766800418138539E-4</v>
+      </c>
+      <c r="M70" s="25">
         <f t="shared" si="6"/>
-        <v>5.6766800418138539E-4</v>
-      </c>
-      <c r="M70" s="25">
-        <f t="shared" si="7"/>
         <v>1.9950176440684374E-4</v>
       </c>
     </row>
@@ -25288,11 +25288,11 @@
         <v>5.7735205353628416E-3</v>
       </c>
       <c r="L71" s="25">
+        <f t="shared" si="7"/>
+        <v>4.1940018705165548E-3</v>
+      </c>
+      <c r="M71" s="25">
         <f t="shared" si="6"/>
-        <v>4.1940018705165548E-3</v>
-      </c>
-      <c r="M71" s="25">
-        <f t="shared" si="7"/>
         <v>2.0043170268504822E-4</v>
       </c>
     </row>
@@ -25337,11 +25337,11 @@
         <v>-4.7015802533629802E-3</v>
       </c>
       <c r="L72" s="25">
+        <f t="shared" si="7"/>
+        <v>-3.2360213339004242E-3</v>
+      </c>
+      <c r="M72" s="25">
         <f t="shared" si="6"/>
-        <v>-3.2360213339004242E-3</v>
-      </c>
-      <c r="M72" s="25">
-        <f t="shared" si="7"/>
         <v>1.9969578823619092E-4</v>
       </c>
     </row>
@@ -25386,11 +25386,11 @@
         <v>5.3834033613444632E-3</v>
       </c>
       <c r="L73" s="25">
+        <f t="shared" si="7"/>
+        <v>2.4230164560641579E-3</v>
+      </c>
+      <c r="M73" s="25">
         <f t="shared" si="6"/>
-        <v>2.4230164560641579E-3</v>
-      </c>
-      <c r="M73" s="25">
-        <f t="shared" si="7"/>
         <v>4.9616724963263944E-3</v>
       </c>
     </row>
@@ -25435,11 +25435,11 @@
         <v>5.5452865064695711E-3</v>
       </c>
       <c r="L74" s="25">
+        <f t="shared" si="7"/>
+        <v>4.6237188605623755E-3</v>
+      </c>
+      <c r="M74" s="25">
         <f t="shared" si="6"/>
-        <v>4.6237188605623755E-3</v>
-      </c>
-      <c r="M74" s="25">
-        <f t="shared" si="7"/>
         <v>6.6146794933793357E-4</v>
       </c>
     </row>
@@ -25484,11 +25484,11 @@
         <v>3.8436050364478724E-3</v>
       </c>
       <c r="L75" s="25">
+        <f t="shared" si="7"/>
+        <v>4.0145272798317467E-3</v>
+      </c>
+      <c r="M75" s="25">
         <f t="shared" si="6"/>
-        <v>4.0145272798317467E-3</v>
-      </c>
-      <c r="M75" s="25">
-        <f t="shared" si="7"/>
         <v>2.0213408370972492E-4</v>
       </c>
     </row>
@@ -25533,11 +25533,11 @@
         <v>-1.5879317189361197E-3</v>
       </c>
       <c r="L76" s="25">
+        <f t="shared" si="7"/>
+        <v>-1.5715250195503067E-3</v>
+      </c>
+      <c r="M76" s="25">
         <f t="shared" si="6"/>
-        <v>-1.5715250195503067E-3</v>
-      </c>
-      <c r="M76" s="25">
-        <f t="shared" si="7"/>
         <v>2.0181543264641475E-4</v>
       </c>
     </row>
@@ -25582,11 +25582,11 @@
         <v>1.477104874446078E-2</v>
       </c>
       <c r="L77" s="25">
+        <f t="shared" si="7"/>
+        <v>1.09800206304984E-2</v>
+      </c>
+      <c r="M77" s="25">
         <f t="shared" si="6"/>
-        <v>1.09800206304984E-2</v>
-      </c>
-      <c r="M77" s="25">
-        <f t="shared" si="7"/>
         <v>2.7691597601019468E-4</v>
       </c>
     </row>
@@ -59196,7 +59196,7 @@
         <v>1.3644059356637817E-2</v>
       </c>
       <c r="L763" s="25">
-        <f t="shared" si="94"/>
+        <f>F763*$N$5+K763*$O$5</f>
         <v>1.0246769487483728E-2</v>
       </c>
       <c r="M763" s="25">

--- a/12.- VaR ApL I.xlsx
+++ b/12.- VaR ApL I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABAB6AB-B2A0-0D4C-84D7-4977E6463F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997D5DD-5FFE-F64C-A14D-FB12A5B958EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{AAAA40BB-0105-C94C-9E93-71014CF61909}"/>
   </bookViews>
@@ -258,7 +258,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -311,6 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -869,7 +870,7 @@
   <dimension ref="A6:M790"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22160,8 +22161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30156819-4D43-B64F-8654-87B4BF10E538}">
   <dimension ref="A2:Q763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22495,7 +22496,7 @@
         <v>-3.4368803701255723E-3</v>
       </c>
       <c r="L15" s="25">
-        <f t="shared" ref="L14:L77" si="7">F15*$N$5+K15*$O$5</f>
+        <f t="shared" ref="L15:L77" si="7">F15*$N$5+K15*$O$5</f>
         <v>-1.5043531425873158E-3</v>
       </c>
       <c r="M15" s="25">
@@ -22894,6 +22895,7 @@
         <f t="shared" si="6"/>
         <v>2.0551191709476847E-4</v>
       </c>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -22943,6 +22945,7 @@
         <f t="shared" si="6"/>
         <v>2.0648449671222517E-4</v>
       </c>
+      <c r="P23" s="25"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -22992,6 +22995,7 @@
         <f t="shared" si="6"/>
         <v>2.0845313957783127E-4</v>
       </c>
+      <c r="P24" s="25"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -56991,7 +56995,7 @@
         <v>8.5900813194363934E-3</v>
       </c>
       <c r="L718" s="25">
-        <f t="shared" ref="L718:L763" si="94">F718*$N$5+K718*$O$5</f>
+        <f t="shared" ref="L718:L762" si="94">F718*$N$5+K718*$O$5</f>
         <v>7.7313360661982033E-3</v>
       </c>
       <c r="M718" s="25">

--- a/12.- VaR ApL I.xlsx
+++ b/12.- VaR ApL I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997D5DD-5FFE-F64C-A14D-FB12A5B958EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6AA770-4D2F-7146-B94B-D58D232F059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{AAAA40BB-0105-C94C-9E93-71014CF61909}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" activeTab="1" xr2:uid="{AAAA40BB-0105-C94C-9E93-71014CF61909}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -302,6 +302,7 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -22159,10 +22160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30156819-4D43-B64F-8654-87B4BF10E538}">
-  <dimension ref="A2:Q763"/>
+  <dimension ref="A2:R763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22171,7 +22172,7 @@
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -22233,24 +22234,24 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="27" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="27"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -22575,7 +22576,7 @@
         <v>8511584.1758425608</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45712</v>
       </c>
@@ -22627,7 +22628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45709</v>
       </c>
@@ -22676,7 +22677,7 @@
         <v>2.0477834559604288E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>45708</v>
       </c>
@@ -22732,7 +22733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45707</v>
       </c>
@@ -22784,15 +22785,16 @@
         <v>35</v>
       </c>
       <c r="P20" s="18">
-        <f>P12+P15+P16</f>
-        <v>1.7157779303157952E-2</v>
+        <f>P12+P15*N5+P16*O5</f>
+        <v>1.6610969388664226E-2</v>
       </c>
       <c r="Q20" s="26">
         <f>Q12+Q15+Q16</f>
         <v>363666029.19719952</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>45706</v>
       </c>
@@ -22847,7 +22849,7 @@
         <v>363666029.19719952</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45702</v>
       </c>
@@ -22895,9 +22897,9 @@
         <f t="shared" si="6"/>
         <v>2.0551191709476847E-4</v>
       </c>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45701</v>
       </c>
@@ -22945,9 +22947,9 @@
         <f t="shared" si="6"/>
         <v>2.0648449671222517E-4</v>
       </c>
-      <c r="P23" s="25"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45700</v>
       </c>
@@ -22997,7 +22999,7 @@
       </c>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45699</v>
       </c>
@@ -23046,7 +23048,7 @@
         <v>2.0652560926098931E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45698</v>
       </c>
@@ -23095,7 +23097,7 @@
         <v>2.7870142560420922E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45695</v>
       </c>
@@ -23144,7 +23146,7 @@
         <v>2.056058533473557E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45694</v>
       </c>
@@ -23193,7 +23195,7 @@
         <v>3.3631121195374519E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>45693</v>
       </c>
@@ -23242,7 +23244,7 @@
         <v>2.0439069113751027E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45692</v>
       </c>
@@ -23291,7 +23293,7 @@
         <v>2.0648811619938129E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>45691</v>
       </c>
@@ -23340,7 +23342,7 @@
         <v>4.1481082048573187E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45688</v>
       </c>

--- a/12.- VaR ApL I.xlsx
+++ b/12.- VaR ApL I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6AA770-4D2F-7146-B94B-D58D232F059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD94819B-A404-A54F-B809-99683A6BCD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" activeTab="1" xr2:uid="{AAAA40BB-0105-C94C-9E93-71014CF61909}"/>
   </bookViews>
@@ -303,6 +303,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,7 +313,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5608CAC-E99B-3A41-90FF-54DFAA92CD4D}">
   <dimension ref="A6:M790"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22162,8 +22162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30156819-4D43-B64F-8654-87B4BF10E538}">
   <dimension ref="A2:R763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22234,24 +22234,24 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="28" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -22947,7 +22947,7 @@
         <f t="shared" si="6"/>
         <v>2.0648449671222517E-4</v>
       </c>
-      <c r="P23" s="31"/>
+      <c r="P23" s="28"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
